--- a/OpenCart-TestCases.xlsx
+++ b/OpenCart-TestCases.xlsx
@@ -8629,6 +8629,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8656,8 +8658,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9850,44 +9850,44 @@
     </row>
     <row r="9" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G9" s="29"/>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="75" t="s">
         <v>2119</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="82"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G10" s="29"/>
-      <c r="H10" s="74"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="82"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G11" s="29"/>
-      <c r="H11" s="74"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="82"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G12" s="29"/>
-      <c r="H12" s="74"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="82"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="7:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G13" s="29"/>
-      <c r="H13" s="75"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="83"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="J14" s="82"/>
+      <c r="J14" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9958,10 +9958,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -10307,10 +10307,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -10925,10 +10925,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -11922,10 +11922,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -12299,10 +12299,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -12946,10 +12946,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -13296,10 +13296,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -13754,10 +13754,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -14212,10 +14212,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -14886,10 +14886,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -15261,7 +15261,7 @@
   <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15278,55 +15278,55 @@
       <c r="A2" s="47" t="s">
         <v>1071</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="79" t="s">
         <v>1121</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>1072</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>1122</v>
       </c>
-      <c r="C3" s="76"/>
+      <c r="C3" s="78"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>1073</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>2129</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="78"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>1074</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="78" t="s">
         <v>2120</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="78"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>1075</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
         <v>2113</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="78"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>1076</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="78" t="s">
         <v>2113</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="78"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
@@ -15980,10 +15980,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -16302,10 +16302,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -16705,10 +16705,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -17162,10 +17162,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -17538,10 +17538,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18103,10 +18103,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18506,10 +18506,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -18855,10 +18855,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -19744,10 +19744,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -20201,10 +20201,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -20661,10 +20661,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
@@ -21522,10 +21522,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -21924,10 +21924,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -22462,10 +22462,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -23161,10 +23161,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -23348,10 +23348,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
@@ -24088,10 +24088,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -24490,10 +24490,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -25270,10 +25270,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -25970,10 +25970,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -26728,10 +26728,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>1089</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>

--- a/OpenCart-TestCases.xlsx
+++ b/OpenCart-TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="2235" tabRatio="914" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="2235" tabRatio="914" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="33" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1134">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3948,9 +3948,6 @@
   </si>
   <si>
     <t>1. Check the 'Change Password' page functionality in all the supported environments (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t>1. Click on 'My Account' Drop menu
@@ -4659,7 +4656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4819,6 +4816,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4828,18 +4831,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="84">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4861,422 +4861,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5429,30 +5037,142 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6070,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6088,55 +5808,53 @@
       <c r="A2" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="64" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C4" s="61"/>
+      <c r="B4" s="63" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C4" s="63"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C5" s="61"/>
+      <c r="B5" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C5" s="63"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C6" s="61"/>
+      <c r="B6" s="66">
+        <v>45133</v>
+      </c>
+      <c r="C6" s="63"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
@@ -6160,7 +5878,7 @@
         <v>533</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>535</v>
@@ -6177,7 +5895,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>536</v>
@@ -6194,7 +5912,7 @@
         <v>108</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>537</v>
@@ -6211,7 +5929,7 @@
         <v>133</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>538</v>
@@ -6228,7 +5946,7 @@
         <v>191</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>539</v>
@@ -6245,7 +5963,7 @@
         <v>243</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>540</v>
@@ -6262,7 +5980,7 @@
         <v>282</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>541</v>
@@ -6279,7 +5997,7 @@
         <v>347</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>542</v>
@@ -6296,7 +6014,7 @@
         <v>362</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>543</v>
@@ -6313,7 +6031,7 @@
         <v>401</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>544</v>
@@ -6330,7 +6048,7 @@
         <v>444</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>545</v>
@@ -6347,7 +6065,7 @@
         <v>453</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>531</v>
@@ -6361,13 +6079,13 @@
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>532</v>
@@ -6378,13 +6096,13 @@
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>529</v>
@@ -6398,7 +6116,7 @@
         <v>485</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>546</v>
@@ -6490,7 +6208,7 @@
     </row>
     <row r="2" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>362</v>
@@ -7042,16 +6760,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J20">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="49" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7269,7 +6987,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="153" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>409</v>
       </c>
@@ -7591,16 +7309,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J17">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7811,7 +7529,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="7" t="s">
@@ -7857,19 +7575,19 @@
         <v>444</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>118</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="7" t="s">
@@ -7968,16 +7686,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8548,60 +8266,60 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J18">
-    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="16" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="18" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="55" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="duplicateValues" dxfId="53" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="51" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="duplicateValues" dxfId="45" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18">
@@ -9054,54 +8772,54 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J14">
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="16" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J14">
@@ -9174,25 +8892,25 @@
     </row>
     <row r="2" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>1051</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="C2" s="59" t="s">
         <v>1052</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1053</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="58" t="s">
@@ -9203,25 +8921,25 @@
     </row>
     <row r="3" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>1056</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>1057</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H3" s="60"/>
       <c r="I3" s="58" t="s">
@@ -9232,25 +8950,25 @@
     </row>
     <row r="4" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>1060</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="59" t="s">
         <v>1061</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="E4" s="59" t="s">
         <v>1062</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>1063</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="58" t="s">
@@ -9261,25 +8979,25 @@
     </row>
     <row r="5" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>1065</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>1066</v>
       </c>
       <c r="D5" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F5" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H5" s="60"/>
       <c r="I5" s="58" t="s">
@@ -9290,25 +9008,25 @@
     </row>
     <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>1068</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>1069</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H6" s="60"/>
       <c r="I6" s="58" t="s">
@@ -9319,25 +9037,25 @@
     </row>
     <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>1072</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>1073</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H7" s="60"/>
       <c r="I7" s="58" t="s">
@@ -9348,25 +9066,25 @@
     </row>
     <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C8" s="59" t="s">
         <v>1076</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>1077</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F8" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="58" t="s">
@@ -9377,25 +9095,25 @@
     </row>
     <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>1080</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>1081</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F9" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="58" t="s">
@@ -9406,25 +9124,25 @@
     </row>
     <row r="10" spans="1:11" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>1084</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>1085</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="58" t="s">
@@ -9435,25 +9153,25 @@
     </row>
     <row r="11" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>1088</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>1089</v>
       </c>
       <c r="D11" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="58" t="s">
@@ -9464,25 +9182,25 @@
     </row>
     <row r="12" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>1092</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>1093</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F12" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="58" t="s">
@@ -9493,25 +9211,25 @@
     </row>
     <row r="13" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C13" s="59" t="s">
         <v>1096</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>1097</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F13" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="58" t="s">
@@ -9522,25 +9240,25 @@
     </row>
     <row r="14" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>1099</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>1100</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H14" s="60"/>
       <c r="I14" s="58" t="s">
@@ -9551,25 +9269,25 @@
     </row>
     <row r="15" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>1103</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>1104</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>367</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F15" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H15" s="60"/>
       <c r="I15" s="58" t="s">
@@ -9580,25 +9298,25 @@
     </row>
     <row r="16" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C16" s="59" t="s">
         <v>1107</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>1108</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F16" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="58" t="s">
@@ -9609,25 +9327,25 @@
     </row>
     <row r="17" spans="1:11" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C17" s="59" t="s">
         <v>1111</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>1112</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F17" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H17" s="60"/>
       <c r="I17" s="58" t="s">
@@ -9638,25 +9356,25 @@
     </row>
     <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C18" s="59" t="s">
         <v>1115</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>1116</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F18" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H18" s="60"/>
       <c r="I18" s="58" t="s">
@@ -9667,25 +9385,25 @@
     </row>
     <row r="19" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C19" s="59" t="s">
         <v>1119</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>1120</v>
       </c>
       <c r="D19" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F19" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H19" s="60"/>
       <c r="I19" s="58" t="s">
@@ -9696,25 +9414,25 @@
     </row>
     <row r="20" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C20" s="59" t="s">
         <v>1123</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>1124</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H20" s="60"/>
       <c r="I20" s="58" t="s">
@@ -9725,25 +9443,25 @@
     </row>
     <row r="21" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>1127</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>1128</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F21" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="58" t="s">
@@ -9762,7 +9480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
@@ -9906,24 +9624,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="6" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
@@ -9940,7 +9658,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
@@ -10010,16 +9728,16 @@
         <v>548</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2" s="36"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="61" t="s">
         <v>528</v>
       </c>
       <c r="J2" s="37"/>
@@ -10049,7 +9767,7 @@
         <v>551</v>
       </c>
       <c r="H3" s="36"/>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="61" t="s">
         <v>527</v>
       </c>
       <c r="J3" s="37"/>
@@ -10079,7 +9797,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="36"/>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="61" t="s">
         <v>527</v>
       </c>
       <c r="J4" s="37"/>
@@ -10106,10 +9824,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H5" s="36"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J5" s="37"/>
@@ -10139,7 +9857,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="36"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J6" s="37"/>
@@ -10169,7 +9887,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="36"/>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J7" s="37"/>
@@ -10199,7 +9917,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="36"/>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J8" s="37"/>
@@ -10229,7 +9947,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J9" s="37"/>
@@ -10253,13 +9971,13 @@
         <v>806</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="36"/>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J10" s="37"/>
@@ -10283,13 +10001,13 @@
         <v>807</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="36"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J11" s="37"/>
@@ -10319,7 +10037,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="36"/>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J12" s="37"/>
@@ -10349,7 +10067,7 @@
         <v>21</v>
       </c>
       <c r="H13" s="36"/>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J13" s="37"/>
@@ -10379,7 +10097,7 @@
         <v>22</v>
       </c>
       <c r="H14" s="36"/>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J14" s="37"/>
@@ -10409,7 +10127,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="36"/>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J15" s="37"/>
@@ -10439,7 +10157,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J16" s="37"/>
@@ -10469,7 +10187,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="36"/>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J17" s="37"/>
@@ -10490,7 +10208,7 @@
         <v>548</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>10</v>
@@ -10499,7 +10217,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="36"/>
-      <c r="I18" s="64" t="s">
+      <c r="I18" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J18" s="37"/>
@@ -10529,7 +10247,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="36"/>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J19" s="37"/>
@@ -10559,7 +10277,7 @@
         <v>30</v>
       </c>
       <c r="H20" s="36"/>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J20" s="37"/>
@@ -10589,7 +10307,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="36"/>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J21" s="37"/>
@@ -10619,7 +10337,7 @@
         <v>32</v>
       </c>
       <c r="H22" s="36"/>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J22" s="37"/>
@@ -10649,7 +10367,7 @@
         <v>34</v>
       </c>
       <c r="H23" s="36"/>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J23" s="37"/>
@@ -10679,7 +10397,7 @@
         <v>35</v>
       </c>
       <c r="H24" s="36"/>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J24" s="37"/>
@@ -10709,7 +10427,7 @@
         <v>36</v>
       </c>
       <c r="H25" s="36"/>
-      <c r="I25" s="64" t="s">
+      <c r="I25" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J25" s="37"/>
@@ -10739,7 +10457,7 @@
         <v>37</v>
       </c>
       <c r="H26" s="36"/>
-      <c r="I26" s="64" t="s">
+      <c r="I26" s="61" t="s">
         <v>532</v>
       </c>
       <c r="J26" s="37"/>
@@ -10769,7 +10487,7 @@
         <v>38</v>
       </c>
       <c r="H27" s="36"/>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="61" t="s">
         <v>527</v>
       </c>
       <c r="J27" s="37"/>
@@ -10779,16 +10497,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J27">
-    <cfRule type="containsText" dxfId="111" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10807,9 +10525,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10874,13 +10592,13 @@
         <v>577</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>828</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>88</v>
@@ -10929,7 +10647,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>576</v>
@@ -10938,7 +10656,7 @@
         <v>830</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>90</v>
@@ -10958,7 +10676,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>576</v>
@@ -10967,7 +10685,7 @@
         <v>831</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>90</v>
@@ -11031,7 +10749,7 @@
         <v>91</v>
       </c>
       <c r="H7" s="42"/>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J7" s="43"/>
@@ -11054,13 +10772,13 @@
         <v>819</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>92</v>
       </c>
       <c r="H8" s="42"/>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J8" s="43"/>
@@ -11089,7 +10807,7 @@
         <v>93</v>
       </c>
       <c r="H9" s="42"/>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J9" s="43"/>
@@ -11112,13 +10830,13 @@
         <v>821</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>94</v>
       </c>
       <c r="H10" s="42"/>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J10" s="43"/>
@@ -11141,13 +10859,13 @@
         <v>822</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>95</v>
       </c>
       <c r="H11" s="42"/>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="62" t="s">
         <v>527</v>
       </c>
       <c r="J11" s="43"/>
@@ -11176,7 +10894,7 @@
         <v>96</v>
       </c>
       <c r="H12" s="42"/>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="62" t="s">
         <v>527</v>
       </c>
       <c r="J12" s="43"/>
@@ -11205,7 +10923,7 @@
         <v>97</v>
       </c>
       <c r="H13" s="42"/>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="62" t="s">
         <v>527</v>
       </c>
       <c r="J13" s="43"/>
@@ -11234,7 +10952,7 @@
         <v>98</v>
       </c>
       <c r="H14" s="42"/>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="62" t="s">
         <v>527</v>
       </c>
       <c r="J14" s="43"/>
@@ -11263,7 +10981,7 @@
         <v>99</v>
       </c>
       <c r="H15" s="42"/>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="62" t="s">
         <v>527</v>
       </c>
       <c r="J15" s="43"/>
@@ -11286,13 +11004,13 @@
         <v>833</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>100</v>
       </c>
       <c r="H16" s="42"/>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="62" t="s">
         <v>527</v>
       </c>
       <c r="J16" s="43"/>
@@ -11315,13 +11033,13 @@
         <v>834</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G17" s="40" t="s">
         <v>101</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J17" s="43"/>
@@ -11341,16 +11059,16 @@
         <v>576</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>102</v>
       </c>
       <c r="H18" s="42"/>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J18" s="43"/>
@@ -11379,7 +11097,7 @@
         <v>103</v>
       </c>
       <c r="H19" s="42"/>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J19" s="43"/>
@@ -11408,7 +11126,7 @@
         <v>104</v>
       </c>
       <c r="H20" s="42"/>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J20" s="43"/>
@@ -11422,7 +11140,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>576</v>
@@ -11437,7 +11155,7 @@
         <v>36</v>
       </c>
       <c r="H21" s="42"/>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J21" s="43"/>
@@ -11466,7 +11184,7 @@
         <v>105</v>
       </c>
       <c r="H22" s="42"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J22" s="43"/>
@@ -11495,7 +11213,7 @@
         <v>106</v>
       </c>
       <c r="H23" s="42"/>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="62" t="s">
         <v>532</v>
       </c>
       <c r="J23" s="43"/>
@@ -11517,16 +11235,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J23">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11811,7 +11529,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>127</v>
@@ -11872,7 +11590,7 @@
         <v>604</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>844</v>
@@ -11893,16 +11611,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11995,7 +11713,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="7" t="s">
@@ -12111,7 +11829,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="7" t="s">
@@ -12401,7 +12119,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="7" t="s">
@@ -12485,7 +12203,7 @@
         <v>860</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>172</v>
@@ -12682,7 +12400,7 @@
         <v>628</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>187</v>
@@ -12703,16 +12421,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J26">
-    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12831,7 +12549,7 @@
         <v>867</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>196</v>
@@ -13005,7 +12723,7 @@
         <v>871</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>209</v>
@@ -13182,7 +12900,7 @@
         <v>202</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="7" t="s">
@@ -13426,16 +13144,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J23">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14080,7 +13798,7 @@
         <v>267</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="7" t="s">
@@ -14109,7 +13827,7 @@
         <v>267</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="7" t="s">
@@ -14138,7 +13856,7 @@
         <v>267</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="7" t="s">
@@ -14208,16 +13926,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J25">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="60" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14387,7 +14105,7 @@
         <v>282</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>118</v>
@@ -14399,7 +14117,7 @@
         <v>193</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="7" t="s">
@@ -15194,16 +14912,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J32">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15540,16 +15258,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2:J10">
-    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
